--- a/results/mp/logistic/corona/confidence/210/desired-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/desired-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>anchor score</t>
   </si>
@@ -61,13 +61,19 @@
     <t>falling</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>sc</t>
+    <t>shit</t>
   </si>
   <si>
     <t>low</t>
@@ -76,27 +82,21 @@
     <t>no</t>
   </si>
   <si>
-    <t>fears</t>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>cut</t>
   </si>
   <si>
     <t>lower</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>cut</t>
+    <t>empty</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -106,21 +106,24 @@
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>special</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
@@ -133,13 +136,13 @@
     <t>thank</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>positive</t>
   </si>
   <si>
     <t>confidence</t>
@@ -148,58 +151,58 @@
     <t>thanks</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>well</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>increase</t>
@@ -560,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,7 +574,7 @@
         <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -679,13 +682,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.918918918918919</v>
+        <v>0.9459459459459459</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -697,19 +700,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -721,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -753,13 +756,13 @@
         <v>31</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -771,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -803,13 +806,13 @@
         <v>32</v>
       </c>
       <c r="K6">
-        <v>0.9491525423728814</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -821,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -903,13 +906,13 @@
         <v>34</v>
       </c>
       <c r="K8">
-        <v>0.9164490861618799</v>
+        <v>0.9138381201044387</v>
       </c>
       <c r="L8">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M8">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -921,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -929,13 +932,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.775</v>
+        <v>0.75</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -947,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K9">
-        <v>0.9014084507042254</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L9">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -971,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -979,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7073643410852714</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="C10">
-        <v>365</v>
+        <v>41</v>
       </c>
       <c r="D10">
-        <v>365</v>
+        <v>41</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -997,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K10">
-        <v>0.8936170212765957</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="L10">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="M10">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1021,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1029,13 +1032,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6949152542372882</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="C11">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D11">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1047,19 +1050,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K11">
-        <v>0.8928571428571429</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="M11">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1071,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1079,13 +1082,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6931216931216931</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="C12">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D12">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1097,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K12">
-        <v>0.890625</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L12">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1121,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1129,13 +1132,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6040268456375839</v>
+        <v>0.6724806201550387</v>
       </c>
       <c r="C13">
-        <v>90</v>
+        <v>347</v>
       </c>
       <c r="D13">
-        <v>90</v>
+        <v>347</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1147,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>59</v>
+        <v>169</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K13">
-        <v>0.8867924528301887</v>
+        <v>0.890625</v>
       </c>
       <c r="L13">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="M13">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1171,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1179,13 +1182,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5972222222222222</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C14">
-        <v>215</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>215</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1197,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K14">
-        <v>0.8837209302325582</v>
+        <v>0.88125</v>
       </c>
       <c r="L14">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="M14">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1221,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1229,13 +1232,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5686274509803921</v>
+        <v>0.6308724832214765</v>
       </c>
       <c r="C15">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="D15">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1247,19 +1250,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K15">
-        <v>0.88125</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="L15">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="M15">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1271,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1279,13 +1282,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5178571428571429</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>212</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>212</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1297,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K16">
-        <v>0.8611111111111112</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1321,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1329,13 +1332,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4909090909090909</v>
+        <v>0.5733333333333334</v>
       </c>
       <c r="C17">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D17">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1347,19 +1350,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K17">
-        <v>0.8536585365853658</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L17">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="M17">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1371,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1379,13 +1382,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.48</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C18">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1397,19 +1400,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K18">
-        <v>0.8448275862068966</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L18">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="M18">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1421,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1429,13 +1432,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4727272727272727</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="C19">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1453,13 +1456,13 @@
         <v>45</v>
       </c>
       <c r="K19">
-        <v>0.8095238095238095</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L19">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M19">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1471,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1479,13 +1482,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3174603174603174</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C20">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="D20">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1497,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>172</v>
+        <v>57</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>46</v>
@@ -1529,13 +1532,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2777777777777778</v>
+        <v>0.3531746031746032</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1547,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K21">
-        <v>0.775</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1571,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1579,13 +1582,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1420911528150134</v>
+        <v>0.2064343163538874</v>
       </c>
       <c r="C22">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="D22">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1597,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>48</v>
@@ -1629,13 +1632,13 @@
         <v>49</v>
       </c>
       <c r="K23">
-        <v>0.76</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L23">
-        <v>38</v>
+        <v>260</v>
       </c>
       <c r="M23">
-        <v>38</v>
+        <v>260</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1647,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1655,13 +1658,13 @@
         <v>50</v>
       </c>
       <c r="K24">
-        <v>0.7588235294117647</v>
+        <v>0.7517006802721088</v>
       </c>
       <c r="L24">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="M24">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1670,10 +1673,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1681,13 +1684,13 @@
         <v>51</v>
       </c>
       <c r="K25">
-        <v>0.7575757575757576</v>
+        <v>0.75</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M25">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1699,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1707,13 +1710,13 @@
         <v>52</v>
       </c>
       <c r="K26">
-        <v>0.7428571428571429</v>
+        <v>0.74</v>
       </c>
       <c r="L26">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M26">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1725,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1733,13 +1736,13 @@
         <v>53</v>
       </c>
       <c r="K27">
-        <v>0.7254237288135593</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L27">
-        <v>214</v>
+        <v>66</v>
       </c>
       <c r="M27">
-        <v>214</v>
+        <v>66</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1751,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>81</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1759,13 +1762,13 @@
         <v>54</v>
       </c>
       <c r="K28">
-        <v>0.7112970711297071</v>
+        <v>0.698744769874477</v>
       </c>
       <c r="L28">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M28">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1777,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1785,13 +1788,13 @@
         <v>55</v>
       </c>
       <c r="K29">
-        <v>0.7078651685393258</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L29">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="M29">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1803,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1811,13 +1814,13 @@
         <v>56</v>
       </c>
       <c r="K30">
-        <v>0.676923076923077</v>
+        <v>0.6629213483146067</v>
       </c>
       <c r="L30">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="M30">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1829,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1837,13 +1840,13 @@
         <v>57</v>
       </c>
       <c r="K31">
-        <v>0.6702127659574468</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L31">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="M31">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1855,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1863,13 +1866,13 @@
         <v>58</v>
       </c>
       <c r="K32">
-        <v>0.6666666666666666</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L32">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="M32">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1881,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1889,13 +1892,13 @@
         <v>59</v>
       </c>
       <c r="K33">
-        <v>0.6571428571428571</v>
+        <v>0.6</v>
       </c>
       <c r="L33">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1907,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1915,7 +1918,7 @@
         <v>60</v>
       </c>
       <c r="K34">
-        <v>0.5555555555555556</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="L34">
         <v>25</v>
@@ -1933,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1941,13 +1944,13 @@
         <v>61</v>
       </c>
       <c r="K35">
-        <v>0.4657534246575342</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="L35">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M35">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1959,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1967,7 +1970,7 @@
         <v>62</v>
       </c>
       <c r="K36">
-        <v>0.4102564102564102</v>
+        <v>0.5</v>
       </c>
       <c r="L36">
         <v>32</v>
@@ -1985,7 +1988,33 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>46</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K37">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="L37">
+        <v>30</v>
+      </c>
+      <c r="M37">
+        <v>30</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
